--- a/scores/score.xlsx
+++ b/scores/score.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/sc20dzi_leeds_ac_uk/Documents/Year 3/Semester 2/Individual Project/pain-detection-cats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominika/Library/CloudStorage/OneDrive-UniversityofLeeds/Year 3/Semester 2/Individual Project/pain-detection-cats/scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="8_{FE09CF12-BA22-E14D-ABFA-1BC09AB0AB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2CA891A-2905-5949-9C35-8B6BFB60F3E4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D913D55F-0640-8E43-82A6-DD9F0FD0948F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="700" windowWidth="24440" windowHeight="7820" xr2:uid="{0692187A-1C2E-4A48-BEDF-5E0FDA9AE14A}"/>
   </bookViews>
@@ -38,42 +38,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>mse</t>
-  </si>
-  <si>
-    <t>rmse</t>
-  </si>
-  <si>
     <t>linear regression</t>
   </si>
   <si>
     <t>logistic regression</t>
   </si>
   <si>
-    <t>decision tree regressor</t>
-  </si>
-  <si>
-    <t>cross val mean</t>
-  </si>
-  <si>
-    <t>standard dev</t>
-  </si>
-  <si>
     <t>random forest</t>
   </si>
   <si>
     <t>SVM</t>
   </si>
   <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>NN (3 layers, 15 neurons)</t>
-  </si>
-  <si>
     <t>best parameters</t>
   </si>
   <si>
@@ -84,6 +60,30 @@
   </si>
   <si>
     <t>{'C': 53, 'gamma': 2, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>neural network</t>
+  </si>
+  <si>
+    <t>decision tree</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>Cross validation mean</t>
+  </si>
+  <si>
+    <t>Cross validation standard deviation</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -168,10 +168,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,7 +470,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,30 +484,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0.22201281568036099</v>
@@ -531,7 +527,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0.217866566151526</v>
@@ -551,7 +547,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>0.22163588390501299</v>
@@ -571,7 +567,7 @@
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6">
         <v>0.203920090463626</v>
@@ -589,12 +585,12 @@
         <v>0.80060309084055703</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>0.217866566151526</v>
@@ -612,18 +608,30 @@
         <v>0.79796456841311703</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.5786</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-0.21129999999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="F7" s="3">
         <v>0.77647942304611195</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
